--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/projects/Skillfactory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/projects/Skillfactory/skpr1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DB1AC3-3E59-014D-81D6-5C08E47E9137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA83895-02F7-F84F-9EEB-ECDF8A4E9D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{D7E3D778-0EF2-6149-B23A-5DE196181AB2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{D7E3D778-0EF2-6149-B23A-5DE196181AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/projects/Skillfactory/skpr1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA83895-02F7-F84F-9EEB-ECDF8A4E9D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB3B3C-5813-8145-83C9-E7C59431EF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{D7E3D778-0EF2-6149-B23A-5DE196181AB2}"/>
   </bookViews>
@@ -382,13 +382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F77775-15AF-044D-8513-E2ACA7B67A20}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/projects/Skillfactory/skpr1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB3B3C-5813-8145-83C9-E7C59431EF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A95671-B79B-AE41-B6B9-5E5035B0CDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{D7E3D778-0EF2-6149-B23A-5DE196181AB2}"/>
   </bookViews>
@@ -383,14 +383,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
